--- a/assets/分工new.xlsx
+++ b/assets/分工new.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +550,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -978,11 +986,17 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1310,12 +1324,13 @@
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -1337,13 +1352,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="E2" t="s">
         <v>100</v>
@@ -1364,11 +1379,11 @@
       </c>
       <c r="C3">
         <f>D2+1</f>
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="D3">
         <f>C3+B3-1</f>
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="E3" t="s">
         <v>77</v>
@@ -1396,11 +1411,11 @@
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C68" si="0">D3+1</f>
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D68" si="1">C4+B4-1</f>
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="E4" t="s">
         <v>77</v>
@@ -1432,11 +1447,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="E5" t="s">
         <v>77</v>
@@ -1474,11 +1489,11 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="E6" t="s">
         <v>77</v>
@@ -1516,11 +1531,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="E7" t="s">
         <v>77</v>
@@ -1558,11 +1573,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="E8" t="s">
         <v>77</v>
@@ -1591,11 +1606,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="E9" t="s">
         <v>77</v>
@@ -1624,11 +1639,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="E10" t="s">
         <v>77</v>
@@ -1657,11 +1672,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>3036</v>
+        <v>3038</v>
       </c>
       <c r="E11" t="s">
         <v>77</v>
@@ -1677,7 +1692,7 @@
         <v>1785</v>
       </c>
       <c r="J11">
-        <v>1824</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1689,11 +1704,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>3037</v>
+        <v>3039</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="E12" t="s">
         <v>77</v>
@@ -1705,11 +1720,11 @@
         <v>77</v>
       </c>
       <c r="I12">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J12">
         <f>I12+635</f>
-        <v>2460</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1721,11 +1736,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>3060</v>
+        <v>3062</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>3103</v>
+        <v>3105</v>
       </c>
       <c r="E13" t="s">
         <v>77</v>
@@ -1738,11 +1753,11 @@
       </c>
       <c r="I13">
         <f t="shared" ref="I13:I18" si="4">J12+1</f>
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="J13">
         <f t="shared" ref="J13:J18" si="5">I13+635</f>
-        <v>3096</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1754,11 +1769,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>3104</v>
+        <v>3106</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="E14" t="s">
         <v>77</v>
@@ -1771,11 +1786,11 @@
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>3097</v>
+        <v>3099</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>3732</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1787,11 +1802,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>3203</v>
+        <v>3205</v>
       </c>
       <c r="E15" t="s">
         <v>77</v>
@@ -1804,11 +1819,11 @@
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>3733</v>
+        <v>3735</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>4368</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1820,11 +1835,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="E16" t="s">
         <v>77</v>
@@ -1837,11 +1852,11 @@
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>4369</v>
+        <v>4371</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>5004</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1853,11 +1868,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>3363</v>
+        <v>3365</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>3518</v>
+        <v>3520</v>
       </c>
       <c r="E17" t="s">
         <v>77</v>
@@ -1870,11 +1885,11 @@
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>5005</v>
+        <v>5007</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>5640</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1886,11 +1901,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>3519</v>
+        <v>3521</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>3664</v>
+        <v>3666</v>
       </c>
       <c r="E18" t="s">
         <v>77</v>
@@ -1903,11 +1918,11 @@
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>5641</v>
+        <v>5643</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>6276</v>
+        <v>6278</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1919,11 +1934,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>3665</v>
+        <v>3667</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>3782</v>
+        <v>3784</v>
       </c>
       <c r="E19" t="s">
         <v>77</v>
@@ -1935,10 +1950,10 @@
         <v>112</v>
       </c>
       <c r="I19">
-        <v>6278</v>
+        <v>6279</v>
       </c>
       <c r="J19">
-        <v>6494</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1950,11 +1965,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>3783</v>
+        <v>3785</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>3870</v>
+        <v>3872</v>
       </c>
       <c r="E20" t="s">
         <v>77</v>
@@ -1967,11 +1982,11 @@
       </c>
       <c r="I20">
         <f>J19+1</f>
-        <v>6495</v>
+        <v>6505</v>
       </c>
       <c r="J20">
         <f>I20+133</f>
-        <v>6628</v>
+        <v>6638</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1983,11 +1998,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>3871</v>
+        <v>3873</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>4223</v>
+        <v>4225</v>
       </c>
       <c r="E21" t="s">
         <v>77</v>
@@ -2000,11 +2015,11 @@
       </c>
       <c r="I21">
         <f t="shared" ref="I21:I33" si="6">J20+1</f>
-        <v>6629</v>
+        <v>6639</v>
       </c>
       <c r="J21">
         <f t="shared" ref="J21:J32" si="7">I21+133</f>
-        <v>6762</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2016,11 +2031,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>4224</v>
+        <v>4226</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>4270</v>
+        <v>4272</v>
       </c>
       <c r="E22" t="s">
         <v>77</v>
@@ -2033,11 +2048,11 @@
       </c>
       <c r="I22">
         <f t="shared" si="6"/>
-        <v>6763</v>
+        <v>6773</v>
       </c>
       <c r="J22">
         <f t="shared" si="7"/>
-        <v>6896</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2049,11 +2064,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>4271</v>
+        <v>4273</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>4561</v>
+        <v>4563</v>
       </c>
       <c r="E23" t="s">
         <v>77</v>
@@ -2066,11 +2081,11 @@
       </c>
       <c r="I23">
         <f t="shared" si="6"/>
-        <v>6897</v>
+        <v>6907</v>
       </c>
       <c r="J23">
         <f t="shared" si="7"/>
-        <v>7030</v>
+        <v>7040</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -2082,11 +2097,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>4562</v>
+        <v>4564</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>4665</v>
+        <v>4667</v>
       </c>
       <c r="E24" t="s">
         <v>77</v>
@@ -2099,11 +2114,11 @@
       </c>
       <c r="I24">
         <f t="shared" si="6"/>
-        <v>7031</v>
+        <v>7041</v>
       </c>
       <c r="J24">
         <f t="shared" si="7"/>
-        <v>7164</v>
+        <v>7174</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -2115,11 +2130,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>4666</v>
+        <v>4668</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>5128</v>
+        <v>5130</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -2132,11 +2147,11 @@
       </c>
       <c r="I25">
         <f t="shared" si="6"/>
-        <v>7165</v>
+        <v>7175</v>
       </c>
       <c r="J25">
         <f t="shared" si="7"/>
-        <v>7298</v>
+        <v>7308</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2148,11 +2163,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>5129</v>
+        <v>5131</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>5226</v>
+        <v>5228</v>
       </c>
       <c r="E26" t="s">
         <v>77</v>
@@ -2165,11 +2180,11 @@
       </c>
       <c r="I26">
         <f t="shared" si="6"/>
-        <v>7299</v>
+        <v>7309</v>
       </c>
       <c r="J26">
         <f t="shared" si="7"/>
-        <v>7432</v>
+        <v>7442</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2181,11 +2196,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>5227</v>
+        <v>5229</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>5232</v>
+        <v>5234</v>
       </c>
       <c r="E27" t="s">
         <v>77</v>
@@ -2198,11 +2213,11 @@
       </c>
       <c r="I27">
         <f t="shared" si="6"/>
-        <v>7433</v>
+        <v>7443</v>
       </c>
       <c r="J27">
         <f t="shared" si="7"/>
-        <v>7566</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2214,11 +2229,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>5233</v>
+        <v>5235</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>5265</v>
+        <v>5267</v>
       </c>
       <c r="E28" t="s">
         <v>77</v>
@@ -2231,11 +2246,11 @@
       </c>
       <c r="I28">
         <f t="shared" si="6"/>
-        <v>7567</v>
+        <v>7577</v>
       </c>
       <c r="J28">
         <f t="shared" si="7"/>
-        <v>7700</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2247,11 +2262,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>5266</v>
+        <v>5268</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>5328</v>
+        <v>5330</v>
       </c>
       <c r="E29" t="s">
         <v>77</v>
@@ -2264,11 +2279,11 @@
       </c>
       <c r="I29">
         <f t="shared" si="6"/>
-        <v>7701</v>
+        <v>7711</v>
       </c>
       <c r="J29">
         <f t="shared" si="7"/>
-        <v>7834</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2280,11 +2295,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>5329</v>
+        <v>5331</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>5495</v>
+        <v>5497</v>
       </c>
       <c r="E30" t="s">
         <v>77</v>
@@ -2297,11 +2312,11 @@
       </c>
       <c r="I30">
         <f t="shared" si="6"/>
-        <v>7835</v>
+        <v>7845</v>
       </c>
       <c r="J30">
         <f t="shared" si="7"/>
-        <v>7968</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2313,11 +2328,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>5496</v>
+        <v>5498</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>5511</v>
+        <v>5513</v>
       </c>
       <c r="E31" t="s">
         <v>77</v>
@@ -2330,11 +2345,11 @@
       </c>
       <c r="I31">
         <f t="shared" si="6"/>
-        <v>7969</v>
+        <v>7979</v>
       </c>
       <c r="J31">
         <f t="shared" si="7"/>
-        <v>8102</v>
+        <v>8112</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2346,11 +2361,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>5512</v>
+        <v>5514</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>5594</v>
+        <v>5596</v>
       </c>
       <c r="E32" t="s">
         <v>77</v>
@@ -2363,11 +2378,11 @@
       </c>
       <c r="I32">
         <f t="shared" si="6"/>
-        <v>8103</v>
+        <v>8113</v>
       </c>
       <c r="J32">
         <f t="shared" si="7"/>
-        <v>8236</v>
+        <v>8246</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2379,11 +2394,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>5595</v>
+        <v>5597</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>5680</v>
+        <v>5682</v>
       </c>
       <c r="E33" t="s">
         <v>77</v>
@@ -2396,11 +2411,11 @@
       </c>
       <c r="I33">
         <f t="shared" si="6"/>
-        <v>8237</v>
+        <v>8247</v>
       </c>
       <c r="J33">
         <f>D74</f>
-        <v>8364</v>
+        <v>8374</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2412,11 +2427,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>5681</v>
+        <v>5683</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>5723</v>
+        <v>5725</v>
       </c>
       <c r="E34" t="s">
         <v>77</v>
@@ -2431,11 +2446,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>5724</v>
+        <v>5726</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>5741</v>
+        <v>5743</v>
       </c>
       <c r="E35" t="s">
         <v>77</v>
@@ -2450,11 +2465,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>5742</v>
+        <v>5744</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>5948</v>
+        <v>5950</v>
       </c>
       <c r="E36" t="s">
         <v>77</v>
@@ -2469,11 +2484,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>5949</v>
+        <v>5951</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>6277</v>
+        <v>6279</v>
       </c>
       <c r="E37" t="s">
         <v>77</v>
@@ -2484,15 +2499,15 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>6278</v>
+        <v>6280</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>6359</v>
+        <v>6369</v>
       </c>
       <c r="E38" t="s">
         <v>100</v>
@@ -2507,11 +2522,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>6360</v>
+        <v>6370</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>6364</v>
+        <v>6374</v>
       </c>
       <c r="E39" t="s">
         <v>100</v>
@@ -2526,11 +2541,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>6365</v>
+        <v>6375</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>6407</v>
+        <v>6417</v>
       </c>
       <c r="E40" t="s">
         <v>100</v>
@@ -2545,11 +2560,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>6408</v>
+        <v>6418</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>6409</v>
+        <v>6419</v>
       </c>
       <c r="E41" t="s">
         <v>100</v>
@@ -2564,11 +2579,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>6410</v>
+        <v>6420</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>6413</v>
+        <v>6423</v>
       </c>
       <c r="E42" t="s">
         <v>100</v>
@@ -2583,11 +2598,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>6414</v>
+        <v>6424</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>6419</v>
+        <v>6429</v>
       </c>
       <c r="E43" t="s">
         <v>100</v>
@@ -2602,11 +2617,11 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>6420</v>
+        <v>6430</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>6445</v>
+        <v>6455</v>
       </c>
       <c r="E44" t="s">
         <v>100</v>
@@ -2621,11 +2636,11 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>6446</v>
+        <v>6456</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>6449</v>
+        <v>6459</v>
       </c>
       <c r="E45" t="s">
         <v>100</v>
@@ -2640,34 +2655,35 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>6450</v>
+        <v>6460</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>6460</v>
+        <v>6470</v>
       </c>
       <c r="E46" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="3">
         <v>34</v>
       </c>
-      <c r="C47" s="1">
-        <f t="shared" si="0"/>
-        <v>6461</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="1"/>
-        <v>6494</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>6471</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="1"/>
+        <v>6504</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>117</v>
       </c>
+      <c r="F47"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -2678,11 +2694,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>6495</v>
+        <v>6505</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>6497</v>
+        <v>6507</v>
       </c>
       <c r="E48" t="s">
         <v>85</v>
@@ -2697,11 +2713,11 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>6498</v>
+        <v>6508</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>6522</v>
+        <v>6532</v>
       </c>
       <c r="E49" t="s">
         <v>85</v>
@@ -2716,11 +2732,11 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>6523</v>
+        <v>6533</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>6541</v>
+        <v>6551</v>
       </c>
       <c r="E50" t="s">
         <v>85</v>
@@ -2735,11 +2751,11 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>6542</v>
+        <v>6552</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>6640</v>
+        <v>6650</v>
       </c>
       <c r="E51" t="s">
         <v>85</v>
@@ -2754,11 +2770,11 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>6641</v>
+        <v>6651</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>6775</v>
+        <v>6785</v>
       </c>
       <c r="E52" t="s">
         <v>85</v>
@@ -2773,11 +2789,11 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>6776</v>
+        <v>6786</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>6915</v>
+        <v>6925</v>
       </c>
       <c r="E53" t="s">
         <v>85</v>
@@ -2792,11 +2808,11 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>6916</v>
+        <v>6926</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>6942</v>
+        <v>6952</v>
       </c>
       <c r="E54" t="s">
         <v>85</v>
@@ -2811,11 +2827,11 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>6943</v>
+        <v>6953</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>6997</v>
+        <v>7007</v>
       </c>
       <c r="E55" t="s">
         <v>85</v>
@@ -2830,11 +2846,11 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>6998</v>
+        <v>7008</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>7172</v>
+        <v>7182</v>
       </c>
       <c r="E56" t="s">
         <v>85</v>
@@ -2849,11 +2865,11 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>7173</v>
+        <v>7183</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>7219</v>
+        <v>7229</v>
       </c>
       <c r="E57" t="s">
         <v>85</v>
@@ -2868,11 +2884,11 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>7220</v>
+        <v>7230</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>7285</v>
+        <v>7295</v>
       </c>
       <c r="E58" t="s">
         <v>85</v>
@@ -2887,11 +2903,11 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>7286</v>
+        <v>7296</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>7362</v>
+        <v>7372</v>
       </c>
       <c r="E59" t="s">
         <v>85</v>
@@ -2906,11 +2922,11 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>7363</v>
+        <v>7373</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>7457</v>
+        <v>7467</v>
       </c>
       <c r="E60" t="s">
         <v>85</v>
@@ -2925,11 +2941,11 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>7458</v>
+        <v>7468</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>7561</v>
+        <v>7571</v>
       </c>
       <c r="E61" t="s">
         <v>85</v>
@@ -2944,11 +2960,11 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>7562</v>
+        <v>7572</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>7627</v>
+        <v>7637</v>
       </c>
       <c r="E62" t="s">
         <v>85</v>
@@ -2963,11 +2979,11 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>7628</v>
+        <v>7638</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>7697</v>
+        <v>7707</v>
       </c>
       <c r="E63" t="s">
         <v>85</v>
@@ -2982,11 +2998,11 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>7698</v>
+        <v>7708</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>7752</v>
+        <v>7762</v>
       </c>
       <c r="E64" t="s">
         <v>85</v>
@@ -3001,11 +3017,11 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>7753</v>
+        <v>7763</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>7825</v>
+        <v>7835</v>
       </c>
       <c r="E65" t="s">
         <v>85</v>
@@ -3020,11 +3036,11 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>7826</v>
+        <v>7836</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>7869</v>
+        <v>7879</v>
       </c>
       <c r="E66" t="s">
         <v>85</v>
@@ -3039,11 +3055,11 @@
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
-        <v>7870</v>
+        <v>7880</v>
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
-        <v>7908</v>
+        <v>7918</v>
       </c>
       <c r="E67" t="s">
         <v>85</v>
@@ -3058,11 +3074,11 @@
       </c>
       <c r="C68">
         <f t="shared" si="0"/>
-        <v>7909</v>
+        <v>7919</v>
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
-        <v>7992</v>
+        <v>8002</v>
       </c>
       <c r="E68" t="s">
         <v>85</v>
@@ -3077,11 +3093,11 @@
       </c>
       <c r="C69">
         <f t="shared" ref="C69:C74" si="8">D68+1</f>
-        <v>7993</v>
+        <v>8003</v>
       </c>
       <c r="D69">
         <f t="shared" ref="D69:D74" si="9">C69+B69-1</f>
-        <v>8091</v>
+        <v>8101</v>
       </c>
       <c r="E69" t="s">
         <v>85</v>
@@ -3096,11 +3112,11 @@
       </c>
       <c r="C70">
         <f t="shared" si="8"/>
-        <v>8092</v>
+        <v>8102</v>
       </c>
       <c r="D70">
         <f t="shared" si="9"/>
-        <v>8179</v>
+        <v>8189</v>
       </c>
       <c r="E70" t="s">
         <v>85</v>
@@ -3115,11 +3131,11 @@
       </c>
       <c r="C71">
         <f t="shared" si="8"/>
-        <v>8180</v>
+        <v>8190</v>
       </c>
       <c r="D71">
         <f t="shared" si="9"/>
-        <v>8218</v>
+        <v>8228</v>
       </c>
       <c r="E71" t="s">
         <v>85</v>
@@ -3134,11 +3150,11 @@
       </c>
       <c r="C72">
         <f t="shared" si="8"/>
-        <v>8219</v>
+        <v>8229</v>
       </c>
       <c r="D72">
         <f t="shared" si="9"/>
-        <v>8318</v>
+        <v>8328</v>
       </c>
       <c r="E72" t="s">
         <v>85</v>
@@ -3153,11 +3169,11 @@
       </c>
       <c r="C73">
         <f t="shared" si="8"/>
-        <v>8319</v>
+        <v>8329</v>
       </c>
       <c r="D73">
         <f t="shared" si="9"/>
-        <v>8341</v>
+        <v>8351</v>
       </c>
       <c r="E73" t="s">
         <v>85</v>
@@ -3172,11 +3188,11 @@
       </c>
       <c r="C74">
         <f t="shared" si="8"/>
-        <v>8342</v>
+        <v>8352</v>
       </c>
       <c r="D74">
         <f t="shared" si="9"/>
-        <v>8364</v>
+        <v>8374</v>
       </c>
       <c r="E74" t="s">
         <v>85</v>
